--- a/Documentación/Product Backlog.xlsx
+++ b/Documentación/Product Backlog.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231C2853-22A8-40A7-881B-5DDD2932CA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7816A3-98EE-4BCB-B35D-0FD2DD0DE740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>Columna</t>
   </si>
@@ -98,163 +98,100 @@
     <t>Título de la historia alternativo a la descripción, que servirá para identificar más fácilmente la historia sin tener que repetir todo su enunciado. Se puede utilizar por ejemplo el nombre de la funcionalidad o requerimiento que se pretende desarrollar.</t>
   </si>
   <si>
+    <t>HT1</t>
+  </si>
+  <si>
+    <t>HT2</t>
+  </si>
+  <si>
+    <t>HT3</t>
+  </si>
+  <si>
+    <t>HT4</t>
+  </si>
+  <si>
+    <t>HT5</t>
+  </si>
+  <si>
+    <t>HT6</t>
+  </si>
+  <si>
+    <t>HT7</t>
+  </si>
+  <si>
+    <t>Por Hacer</t>
+  </si>
+  <si>
+    <t>""""</t>
+  </si>
+  <si>
+    <t>Configuración del entorno.</t>
+  </si>
+  <si>
+    <t>Elección de entornos</t>
+  </si>
+  <si>
+    <t>Realizado</t>
+  </si>
+  <si>
+    <t>Como desarrollador, quiero configurar el entorno de desarrollo e integrar herramientas esenciales como APIs, frameworks  para establecer una base técnica sólida.</t>
+  </si>
+  <si>
+    <t>Como desarrollador, quiero seleccionar  las herramientas necesarias, como APIs, frameworks y bases de datos, para establecer un entorno de desarrollo adecuado y garantizar que el proyecto se desarrolle de manera eficiente.</t>
+  </si>
+  <si>
+    <t>Diseño de la base de datos.</t>
+  </si>
+  <si>
     <t>HU1</t>
   </si>
   <si>
-    <t>HU2</t>
-  </si>
-  <si>
-    <t>HU3</t>
-  </si>
-  <si>
-    <t>HT1</t>
-  </si>
-  <si>
-    <t>HT2</t>
-  </si>
-  <si>
-    <t>HU4</t>
-  </si>
-  <si>
-    <t>HT3</t>
-  </si>
-  <si>
-    <t>HU5</t>
-  </si>
-  <si>
-    <t>HU6</t>
-  </si>
-  <si>
-    <t>HT4</t>
-  </si>
-  <si>
-    <t>HU7</t>
-  </si>
-  <si>
-    <t>HT5</t>
-  </si>
-  <si>
-    <t>HU8</t>
-  </si>
-  <si>
-    <t>HT6</t>
-  </si>
-  <si>
-    <t>HU9</t>
-  </si>
-  <si>
-    <t>HT7</t>
-  </si>
-  <si>
-    <t>HU10</t>
-  </si>
-  <si>
-    <t>Página Informativa</t>
-  </si>
-  <si>
-    <t>Pruebas Unitarias</t>
-  </si>
-  <si>
-    <t>Notificaciones</t>
-  </si>
-  <si>
-    <t>Gestión Usuarios</t>
-  </si>
-  <si>
-    <t>Registro Entregas</t>
-  </si>
-  <si>
-    <t>Cálculo Pagos</t>
-  </si>
-  <si>
-    <t>Config. Entorno</t>
-  </si>
-  <si>
-    <t>Diseño BD</t>
-  </si>
-  <si>
-    <t>Catálogo Productos</t>
-  </si>
-  <si>
-    <t>Gráficos Rend.</t>
-  </si>
-  <si>
-    <t>Seguridad</t>
-  </si>
-  <si>
-    <t>Integración API</t>
-  </si>
-  <si>
-    <t>Registro Productores</t>
-  </si>
-  <si>
-    <t>Backups</t>
-  </si>
-  <si>
-    <t>Exportación Datos</t>
-  </si>
-  <si>
-    <t>Optimización</t>
-  </si>
-  <si>
-    <t>Seguimiento Prod</t>
-  </si>
-  <si>
-    <t>Por Hacer</t>
-  </si>
-  <si>
-    <t>""""</t>
-  </si>
-  <si>
-    <t>Como administrador, quiero gestionar (crear, editar y eliminar) usuarios con diferentes roles para que puedan realizar sus funciones específicas dentro del sistema.</t>
-  </si>
-  <si>
-    <t>Como recolector, quiero registrar las entregas diarias de leche para llevar un control preciso y actualizado de las transacciones.</t>
-  </si>
-  <si>
-    <t>Como administrador, quiero que el sistema calcule automáticamente los pagos mensuales para reducir errores manuales y aumentar la transparencia.</t>
-  </si>
-  <si>
-    <t>Como desarrollador, quiero configurar el entorno de desarrollo inicial para establecer una base estable para el proyecto.</t>
-  </si>
-  <si>
-    <t>Como desarrollador, quiero diseñar y crear la base de datos para almacenar eficientemente la información del sistema.</t>
-  </si>
-  <si>
-    <t>Como visitante, quiero acceder a información sobre la asociación para conocer sus servicios y actividades.</t>
-  </si>
-  <si>
-    <t>Como productor, quiero poder introducir mis productos para componer un catálogo y ofrecerlos en la web.</t>
-  </si>
-  <si>
-    <t>Como administrador, quiero gestionar (crear, editar y eliminar) productos de la asociación para mantener actualizada la lista de productos disponibles.</t>
-  </si>
-  <si>
-    <t>Como administrador, quiero visualizar gráficos de rendimiento de entrega de leche por productor para analizar tendencias y tomar decisiones informadas.</t>
-  </si>
-  <si>
-    <t>Como desarrollador, quiero implementar autenticación y autorización en el sistema para proteger la información y restringir accesos.</t>
-  </si>
-  <si>
-    <t>Como administrador, quiero que el sistema envíe notificaciones automáticas a los recolectores y productores para informar sobre pagos, entregas y eventos importantes.</t>
-  </si>
-  <si>
-    <t>Como desarrollador, quiero integrar una API de terceros para validación de datos para mejorar la calidad de la información ingresada.</t>
-  </si>
-  <si>
-    <t>Como administrador, quiero registrar los datos de los productores para llevar un control sobre sus entregas y pagos.</t>
-  </si>
-  <si>
-    <t>Como desarrollador, quiero implementar una estrategia de respaldo automatizado de la base de datos para proteger la información ante fallos.</t>
-  </si>
-  <si>
-    <t>Como administrador, quiero exportar reportes en formatos como Excel y PDF para realizar análisis externos y compartir información.</t>
-  </si>
-  <si>
-    <t>Como desarrollador, quiero optimizar las consultas a la base de datos para reducir el tiempo de carga del sistema.</t>
-  </si>
-  <si>
-    <t>Como administrador, quiero un panel para hacer seguimiento a la producción diaria de leche para identificar rápidamente desviaciones o problemas.</t>
+    <t>Como desarrollador, quiero diseñar y estructurar la base de datos para almacenar eficientemente toda la información del sistema,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integracion Base de Datos </t>
+  </si>
+  <si>
+    <t>Como desarrollador, quiero integrar la base de datos para almacenar eficientemente toda la información del sistema,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Como desarrollador, quiero implementar el prototipo de la página principal utilizando las tecnologías seleccionadas, así como será estructurada y su estilo general.</t>
+  </si>
+  <si>
+    <t>Página Principal - Prototipo</t>
+  </si>
+  <si>
+    <t>Como usuario, quiero visualizar el prototipo de la página principal utilizando las tecnologías seleccionadas,para comprender cómo será la interfaz inicial del sistema y verificar que cumple con mis expectativas y necesidades.</t>
+  </si>
+  <si>
+    <t>Creación de la página principal del sistema -Protoripo</t>
+  </si>
+  <si>
+    <t>Página Prinicpal Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por hacer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como desarrollador, quiero finalizar la implementación de la página principal junto con sus módulos de información , ubicación (versión definitiva) mediante las tecnologías seleccionadas,  para garantizar que la interfaz principal sea completamente funcional brinde una experiencia de usuario óptima.  </t>
+  </si>
+  <si>
+    <t>Interfaz de incio de sesión</t>
+  </si>
+  <si>
+    <t>HT8</t>
+  </si>
+  <si>
+    <t>Como desarrollador requiero la creación de la interfaz de administrador con los módulos respectivos para el cumplimineto del regisro de datos dentro de la Asociación.</t>
+  </si>
+  <si>
+    <t>Interfaz Admionistrativa</t>
+  </si>
+  <si>
+    <t>Como desarrollador quiero crear la interfaz de inicio de sesión a la página web, a traves de las tecnologías elegidas para el uso del administrativo.</t>
   </si>
 </sst>
 </file>
@@ -293,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +246,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -354,6 +297,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,17 +630,17 @@
     <col min="11" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:11" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -715,22 +665,25 @@
       <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F5" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -739,50 +692,50 @@
         <v>1</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G7" s="7">
         <v>2</v>
@@ -791,47 +744,47 @@
         <v>2</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7">
         <v>16</v>
@@ -843,47 +796,47 @@
         <v>1</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="9" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="8">
+        <v>16</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="7">
-        <v>16</v>
-      </c>
-      <c r="G10" s="7">
-        <v>3</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>63</v>
+      <c r="C11" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7">
         <v>16</v>
@@ -895,21 +848,21 @@
         <v>1</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="F12" s="7">
         <v>16</v>
@@ -921,242 +874,133 @@
         <v>2</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F13" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="7">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7">
-        <v>6</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="7">
-        <v>12</v>
-      </c>
-      <c r="G15" s="7">
-        <v>7</v>
-      </c>
-      <c r="H15" s="7">
-        <v>2</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="7">
-        <v>20</v>
-      </c>
-      <c r="G16" s="7">
-        <v>8</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="7">
-        <v>20</v>
-      </c>
-      <c r="G17" s="7">
-        <v>8</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="7">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7">
-        <v>9</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="7">
-        <v>18</v>
-      </c>
-      <c r="G19" s="7">
-        <v>10</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="7">
-        <v>18</v>
-      </c>
-      <c r="G20" s="7">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="7">
-        <v>18</v>
-      </c>
-      <c r="G21" s="7">
-        <v>12</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Documentación/Product Backlog.xlsx
+++ b/Documentación/Product Backlog.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7816A3-98EE-4BCB-B35D-0FD2DD0DE740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE2A9F2-6297-42DF-BF47-BBA723FCECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Columna</t>
   </si>
@@ -170,28 +170,46 @@
     <t>Creación de la página principal del sistema -Protoripo</t>
   </si>
   <si>
-    <t>Página Prinicpal Final</t>
-  </si>
-  <si>
     <t xml:space="preserve">Por hacer </t>
   </si>
   <si>
-    <t xml:space="preserve">Como desarrollador, quiero finalizar la implementación de la página principal junto con sus módulos de información , ubicación (versión definitiva) mediante las tecnologías seleccionadas,  para garantizar que la interfaz principal sea completamente funcional brinde una experiencia de usuario óptima.  </t>
-  </si>
-  <si>
-    <t>Interfaz de incio de sesión</t>
-  </si>
-  <si>
     <t>HT8</t>
   </si>
   <si>
-    <t>Como desarrollador requiero la creación de la interfaz de administrador con los módulos respectivos para el cumplimineto del regisro de datos dentro de la Asociación.</t>
-  </si>
-  <si>
-    <t>Interfaz Admionistrativa</t>
-  </si>
-  <si>
-    <t>Como desarrollador quiero crear la interfaz de inicio de sesión a la página web, a traves de las tecnologías elegidas para el uso del administrativo.</t>
+    <t>Como desarrollador del proyecto, quiero evaluar el feedback recibido por parte de los directivos de la Asociación de Productores San Pedro de Licto sobre el prototipo inicial, para implementar las mejoras necesarias en la interfaz de usuario y garantizar que las funcionalidades propuestas cumplan con las expectativas y necesidades de los usuarios finales.</t>
+  </si>
+  <si>
+    <t>Prototipo Revisión I</t>
+  </si>
+  <si>
+    <t>HU2</t>
+  </si>
+  <si>
+    <t>Como miembro directivo de la Asociación de Productores San Pedro de Licto, quiero revisar y proporcionar retroalimentación sobre el prototipo inicial de la interfaz, para asegurarme de que cumple con las necesidades de los productores y facilita el acceso a las funciones principales del sistema.</t>
+  </si>
+  <si>
+    <t>Validación de Prototipo Inicial</t>
+  </si>
+  <si>
+    <t>Interfaz de incio de sesión Prototipo</t>
+  </si>
+  <si>
+    <t>Como desarrollador quiero crear el prototipo de la interfaz de inicio de sesión a la página web, a traves de las tecnologías elegidas para el uso del administrativo.</t>
+  </si>
+  <si>
+    <t>Como desarrollador requiero la creación del prototipo de la interfaz de administrador con los módulos respectivos para el cumplimineto del regisro de datos dentro de la Asociación.</t>
+  </si>
+  <si>
+    <t>HT9</t>
+  </si>
+  <si>
+    <t>Como desarrollador requiero la evaluación de los nuevos avances para agregar las necesidades de los miembros de la asociación a traves de los comentarios recibidos.</t>
+  </si>
+  <si>
+    <t>Interfaz Administrativa</t>
+  </si>
+  <si>
+    <t>Validación II Prototipo Inicial</t>
   </si>
 </sst>
 </file>
@@ -283,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -298,12 +316,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K23"/>
+  <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,262 +701,293 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="10">
         <v>6</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="10">
         <v>1</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="10">
         <v>3</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="10">
         <v>8</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="10">
         <v>2</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="10">
         <v>2</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="10">
         <v>4</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="10">
         <v>3</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="10">
         <v>16</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="10">
         <v>3</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="10">
         <v>1</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:11" s="9" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="11">
         <v>16</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="11">
         <v>3</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="11">
         <v>1</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="10">
+        <v>8</v>
+      </c>
+      <c r="G11" s="10">
+        <v>4</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="10">
+        <v>3</v>
+      </c>
+      <c r="G12" s="10">
+        <v>4</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="8" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="14">
+        <v>8</v>
+      </c>
+      <c r="G13" s="14">
+        <v>4</v>
+      </c>
+      <c r="H13" s="14">
+        <v>2</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="10">
+        <v>16</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="7">
-        <v>16</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F15" s="7">
         <v>4</v>
       </c>
-      <c r="H11" s="7">
+      <c r="G15" s="7">
+        <v>6</v>
+      </c>
+      <c r="H15" s="10">
         <v>1</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="7">
-        <v>16</v>
-      </c>
-      <c r="G12" s="7">
-        <v>4</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="7">
-        <v>16</v>
-      </c>
-      <c r="G13" s="7">
-        <v>4</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1001,6 +1063,16 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Documentación/Product Backlog.xlsx
+++ b/Documentación/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE2A9F2-6297-42DF-BF47-BBA723FCECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E99032-59DE-4358-9181-CEAB53FBC03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>Columna</t>
   </si>
@@ -119,9 +119,6 @@
     <t>HT7</t>
   </si>
   <si>
-    <t>Por Hacer</t>
-  </si>
-  <si>
     <t>""""</t>
   </si>
   <si>
@@ -197,26 +194,62 @@
     <t>Como desarrollador quiero crear el prototipo de la interfaz de inicio de sesión a la página web, a traves de las tecnologías elegidas para el uso del administrativo.</t>
   </si>
   <si>
-    <t>Como desarrollador requiero la creación del prototipo de la interfaz de administrador con los módulos respectivos para el cumplimineto del regisro de datos dentro de la Asociación.</t>
-  </si>
-  <si>
     <t>HT9</t>
   </si>
   <si>
-    <t>Como desarrollador requiero la evaluación de los nuevos avances para agregar las necesidades de los miembros de la asociación a traves de los comentarios recibidos.</t>
-  </si>
-  <si>
-    <t>Interfaz Administrativa</t>
-  </si>
-  <si>
-    <t>Validación II Prototipo Inicial</t>
+    <t>Como desarrollador, quiero implementar la nueva versión de la página principal utilizando las tecnologías seleccionadas para asegurarme de que cumpla con los requisitos funcionales y de diseño establecidos, basándome en las recomendaciones dadas por los miembros de la asociación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interfaz Principal - Cambios </t>
+  </si>
+  <si>
+    <t>Como desarrollador, quiero implementar la página de administrador utilizando las tecnologías seleccionadas para asegurarme de que cumpla con los requisitos funcionales y de diseño establecidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototipo Interfaz - Administrador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT10 </t>
+  </si>
+  <si>
+    <t>Como desarrollador, quiero implementar la página de gestión de usuarios utilizando las tecnologías seleccionadas para asegurarme de que cumpla con los requisitos funcionales y de diseño establecidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interfaz Usuario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizado </t>
+  </si>
+  <si>
+    <t>"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT11 </t>
+  </si>
+  <si>
+    <t>Como desarrollador, quiero implementar la página de registro de leche utilizando las tecnologías seleccionadas para asegurarme de que cumpla con los requisitos funcionales y de diseño establecidos.</t>
+  </si>
+  <si>
+    <t>Como desarrollador, quiero implementar la página de pagos utilizando las tecnologías seleccionadas para asegurarme de que cumpla con los requisitos funcionales y de diseño establecidos.</t>
+  </si>
+  <si>
+    <t>Interfaz - Registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interfaz - Pagos </t>
+  </si>
+  <si>
+    <t>Por hacer</t>
+  </si>
+  <si>
+    <t>HT12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +280,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +309,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,25 +362,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,322 +742,356 @@
         <v>11</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="7">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="D9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="10">
-        <v>6</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="F9" s="7">
+        <v>16</v>
+      </c>
+      <c r="G9" s="7">
+        <v>3</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="9">
+        <v>16</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3</v>
+      </c>
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="I10" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7">
+        <v>8</v>
+      </c>
+      <c r="G11" s="7">
+        <v>4</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7">
         <v>3</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G12" s="7">
+        <v>4</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="8" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="12">
+        <v>8</v>
+      </c>
+      <c r="G13" s="12">
+        <v>4</v>
+      </c>
+      <c r="H13" s="12">
         <v>2</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I13" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7">
+        <v>16</v>
+      </c>
+      <c r="G14" s="7">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="10">
-        <v>8</v>
-      </c>
-      <c r="G7" s="10">
-        <v>2</v>
-      </c>
-      <c r="H7" s="10">
-        <v>2</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="10">
-        <v>4</v>
-      </c>
-      <c r="G8" s="10">
-        <v>3</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="10">
-        <v>16</v>
-      </c>
-      <c r="G9" s="10">
-        <v>3</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" s="9" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="11">
-        <v>16</v>
-      </c>
-      <c r="G10" s="11">
-        <v>3</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="10">
-        <v>8</v>
-      </c>
-      <c r="G11" s="10">
-        <v>4</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="10">
-        <v>3</v>
-      </c>
-      <c r="G12" s="10">
-        <v>4</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" s="8" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="14">
-        <v>8</v>
-      </c>
-      <c r="G13" s="14">
-        <v>4</v>
-      </c>
-      <c r="H13" s="14">
-        <v>2</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="I14" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="F14" s="10">
-        <v>16</v>
-      </c>
-      <c r="G14" s="10">
-        <v>5</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G15" s="7">
         <v>6</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="7">
         <v>1</v>
       </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="2:11" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="7">
+        <v>8</v>
+      </c>
+      <c r="G16" s="7">
+        <v>6</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" s="15" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="2:9" s="15" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
@@ -1075,6 +1154,7 @@
       <c r="I24" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Documentación/Product Backlog.xlsx
+++ b/Documentación/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E99032-59DE-4358-9181-CEAB53FBC03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1911AF-B0C8-4BBE-BAF3-4B312DD0B037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>Columna</t>
   </si>
@@ -239,10 +239,25 @@
     <t xml:space="preserve">Interfaz - Pagos </t>
   </si>
   <si>
-    <t>Por hacer</t>
-  </si>
-  <si>
     <t>HT12</t>
+  </si>
+  <si>
+    <t>HT13</t>
+  </si>
+  <si>
+    <t>HT14</t>
+  </si>
+  <si>
+    <t>Como desarrollador, quiero implementar la página de prediccón utilizando las tecnologías seleccionadas para asegurarme de que cumpla con los requisitos funcionales y de diseño establecidos.</t>
+  </si>
+  <si>
+    <t>Como desarrollador, quiero implementar la página de reportes utilizando las tecnologías seleccionadas para asegurarme de que cumpla con los requisitos funcionales y de diseño establecidos.</t>
+  </si>
+  <si>
+    <t>Interfaz - Predicción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interfaz - Reprotes </t>
   </si>
 </sst>
 </file>
@@ -287,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,12 +324,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -377,10 +386,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,60 +1062,100 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="15" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
+    <row r="17" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="7">
+        <v>8</v>
+      </c>
+      <c r="G17" s="7">
+        <v>7</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="2:9" s="15" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="7">
+        <v>8</v>
+      </c>
+      <c r="G18" s="7">
+        <v>7</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="C19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="F19" s="7">
+        <v>8</v>
+      </c>
+      <c r="G19" s="7">
+        <v>8</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="7">
+        <v>8</v>
+      </c>
+      <c r="G20" s="7">
+        <v>8</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">

--- a/Documentación/Product Backlog.xlsx
+++ b/Documentación/Product Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1911AF-B0C8-4BBE-BAF3-4B312DD0B037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAE9D51-8A69-4713-B232-186B4EFAD5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>Columna</t>
   </si>
@@ -258,6 +258,24 @@
   </si>
   <si>
     <t xml:space="preserve">Interfaz - Reprotes </t>
+  </si>
+  <si>
+    <t>HT15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario - Administrador </t>
+  </si>
+  <si>
+    <t>HT16</t>
+  </si>
+  <si>
+    <t>Base - Administrador</t>
+  </si>
+  <si>
+    <t>Como desarrollador, quiero conectar la base de datos para el ingreso de datos de los usuarios.</t>
+  </si>
+  <si>
+    <t>Como desarrollador, quiero autenticar al administrador para que pueda realizar sus funciones.</t>
   </si>
 </sst>
 </file>
@@ -693,7 +711,7 @@
   <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,7 +1139,7 @@
         <v>73</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7">
         <v>8</v>
@@ -1145,37 +1163,65 @@
         <v>74</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="7">
+        <v>8</v>
+      </c>
+      <c r="G20" s="7">
+        <v>8</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="7">
+        <v>8</v>
+      </c>
+      <c r="G21" s="7">
+        <v>9</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="7">
-        <v>8</v>
-      </c>
-      <c r="G20" s="7">
-        <v>8</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="F22" s="7">
+        <v>8</v>
+      </c>
+      <c r="G22" s="7">
+        <v>10</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">

--- a/Documentación/Product Backlog.xlsx
+++ b/Documentación/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAE9D51-8A69-4713-B232-186B4EFAD5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAF745A-7186-4535-AC51-F0B23038996D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
   <si>
     <t>Columna</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t>Como desarrollador, quiero autenticar al administrador para que pueda realizar sus funciones.</t>
+  </si>
+  <si>
+    <t>HT17</t>
+  </si>
+  <si>
+    <t>Como desarrollador, quiero completar funcionalidades del sistema para que funcione de la mejor manera.</t>
+  </si>
+  <si>
+    <t>Sistema</t>
   </si>
 </sst>
 </file>
@@ -710,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1225,13 +1234,27 @@
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="7">
+        <v>32</v>
+      </c>
+      <c r="G23" s="7">
+        <v>11</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">

--- a/Documentación/Product Backlog.xlsx
+++ b/Documentación/Product Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAF745A-7186-4535-AC51-F0B23038996D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B9EB56-57B3-48D4-8650-A3E5F3C8C5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>Columna</t>
   </si>
@@ -285,6 +285,15 @@
   </si>
   <si>
     <t>Sistema</t>
+  </si>
+  <si>
+    <t>HT18</t>
+  </si>
+  <si>
+    <t>Predicción</t>
+  </si>
+  <si>
+    <t>Como desarrollador, quiero implementar el modelo ARIMA en el sistema para generar predicción</t>
   </si>
 </sst>
 </file>
@@ -719,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,13 +1267,27 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="7">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7">
+        <v>12</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
       <c r="I24" s="7"/>
     </row>
   </sheetData>
